--- a/src/test/java/Data/Worksheet.xlsx
+++ b/src/test/java/Data/Worksheet.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE642145-37DD-46BF-87D0-DD5185474FA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9214638-F175-4ABF-B2F3-9272A72A568A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="46">
   <si>
     <t>title</t>
   </si>
@@ -113,13 +114,58 @@
   </si>
   <si>
     <t>ram</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>additionalneeds</t>
+  </si>
+  <si>
+    <t>checkin</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>totalprice</t>
+  </si>
+  <si>
+    <t>depositpaid</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Brakefast</t>
+  </si>
+  <si>
+    <t>gurjar</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>sambhe</t>
+  </si>
+  <si>
+    <t>sagar</t>
+  </si>
+  <si>
+    <t>kam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +187,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -195,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +258,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1389,4 +1445,143 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF87EE3-4327-412F-8356-FB59E9DB5502}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45078</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45078</v>
+      </c>
+      <c r="F2" s="4">
+        <v>111</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45078</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45078</v>
+      </c>
+      <c r="F3" s="4">
+        <v>455</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45078</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45078</v>
+      </c>
+      <c r="F4" s="4">
+        <v>355</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45078</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45078</v>
+      </c>
+      <c r="F5" s="4">
+        <v>456</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/Data/Worksheet.xlsx
+++ b/src/test/java/Data/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9214638-F175-4ABF-B2F3-9272A72A568A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1C134A-E246-41C4-B5D8-10B8ED5B895F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="87">
   <si>
     <t>title</t>
   </si>
@@ -159,13 +159,136 @@
   </si>
   <si>
     <t>kam</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>TC123</t>
+  </si>
+  <si>
+    <t>TC124</t>
+  </si>
+  <si>
+    <t>TC125</t>
+  </si>
+  <si>
+    <t>TC126</t>
+  </si>
+  <si>
+    <t>TC127</t>
+  </si>
+  <si>
+    <t>Sonal</t>
+  </si>
+  <si>
+    <t>Pardessi</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>TC128</t>
+  </si>
+  <si>
+    <t>TC129</t>
+  </si>
+  <si>
+    <t>TC130</t>
+  </si>
+  <si>
+    <t>Senthil</t>
+  </si>
+  <si>
+    <t>Palanswami</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>rim</t>
+  </si>
+  <si>
+    <t>kim</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>TC131</t>
+  </si>
+  <si>
+    <t>TC132</t>
+  </si>
+  <si>
+    <t>TC133</t>
+  </si>
+  <si>
+    <t>TC134</t>
+  </si>
+  <si>
+    <t>TC135</t>
+  </si>
+  <si>
+    <t>TC136</t>
+  </si>
+  <si>
+    <t>TC137</t>
+  </si>
+  <si>
+    <t>TC138</t>
+  </si>
+  <si>
+    <t>TC139</t>
+  </si>
+  <si>
+    <t>TC140</t>
+  </si>
+  <si>
+    <t>TC141</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +317,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -204,17 +342,45 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -227,7 +393,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -240,28 +408,50 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,1046 +732,1407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="G2" s="8">
         <v>324234</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2">
+      <c r="I2" s="8">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2">
+      <c r="Q2" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="G3" s="8">
         <v>43424</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2">
+      <c r="I3" s="8">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="2">
+      <c r="Q3" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="G4" s="8">
         <v>23424343</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2">
+      <c r="I4" s="8">
         <v>45</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="N4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="P4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="2">
+      <c r="Q4" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2">
+      <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="G5" s="8">
         <v>23424343</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2">
+      <c r="I5" s="8">
         <v>45</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="L5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="O5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="P5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="2">
+      <c r="Q5" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2">
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="G6" s="8">
         <v>23424343</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2">
+      <c r="I6" s="8">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="L6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="N6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="O6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="P6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="2">
+      <c r="Q6" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2">
+      <c r="F7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="G7" s="8">
         <v>23424343</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="8">
         <v>45</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="L7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="M7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="N7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="O7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="P7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2">
+      <c r="F8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="G8" s="8">
         <v>23424343</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2">
+      <c r="I8" s="8">
         <v>45</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="K8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="L8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="M8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="N8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="O8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="P8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="2">
+      <c r="Q8" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
+      <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="G9" s="8">
         <v>23424343</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2">
+      <c r="I9" s="8">
         <v>45</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="J9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="K9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="L9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="M9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="N9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="O9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="P9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="2">
+      <c r="Q9" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2">
+      <c r="F10" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="G10" s="8">
         <v>23424343</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="H10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2">
+      <c r="I10" s="8">
         <v>45</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="K10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="L10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="M10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="N10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="O10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="P10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="2">
+      <c r="Q10" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2">
+      <c r="F11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="G11" s="8">
         <v>23424343</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2">
+      <c r="I11" s="8">
         <v>45</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="J11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="K11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="L11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="M11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="N11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="O11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="P11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="2">
+      <c r="Q11" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2">
+      <c r="F12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="G12" s="8">
         <v>23424343</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="2">
+      <c r="I12" s="8">
         <v>45</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="J12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="K12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="L12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="M12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="N12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="O12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="P12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="2">
+      <c r="Q12" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2">
+      <c r="F13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="G13" s="8">
         <v>23424343</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2">
+      <c r="I13" s="8">
         <v>45</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="J13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="K13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="L13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="M13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="N13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="O13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="P13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="2">
+      <c r="Q13" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2">
+      <c r="F14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="G14" s="8">
         <v>23424343</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="H14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2">
+      <c r="I14" s="8">
         <v>45</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="J14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="K14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="L14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="M14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="N14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="O14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="P14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="2">
+      <c r="Q14" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
+      <c r="F15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="G15" s="8">
         <v>23424343</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="H15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="2">
+      <c r="I15" s="8">
         <v>45</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="J15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="K15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="L15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="M15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="N15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="O15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="P15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="2">
+      <c r="Q15" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
+      <c r="F16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="G16" s="8">
         <v>23424343</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="H16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="2">
+      <c r="I16" s="8">
         <v>45</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="J16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="K16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="L16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="M16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="N16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="O16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="P16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="2">
+      <c r="Q16" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2">
+      <c r="F17" s="8">
         <v>3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="G17" s="8">
         <v>23424343</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="H17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2">
+      <c r="I17" s="8">
         <v>45</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="J17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="K17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="L17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="M17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="N17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="O17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="P17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="2">
+      <c r="Q17" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2">
+      <c r="F18" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="G18" s="8">
         <v>23424343</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="H18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="2">
+      <c r="I18" s="8">
         <v>45</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="J18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="K18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="L18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="M18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="N18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="O18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="P18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="2">
+      <c r="Q18" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2">
+      <c r="F19" s="8">
         <v>3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="G19" s="8">
         <v>23424343</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="H19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2">
+      <c r="I19" s="8">
         <v>45</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="J19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="K19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="L19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="M19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="N19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="O19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="P19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="2">
+      <c r="Q19" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2">
+      <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="G20" s="8">
         <v>23424343</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="2">
+      <c r="I20" s="8">
         <v>45</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="J20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="K20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="L20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="M20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="N20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="O20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="P20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="2">
+      <c r="Q20" s="8">
         <v>1200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF87EE3-4327-412F-8356-FB59E9DB5502}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6">
+      <c r="G2" s="6">
         <v>45078</v>
       </c>
-      <c r="E2" s="7">
+      <c r="H2" s="7">
         <v>45078</v>
       </c>
-      <c r="F2" s="4">
+      <c r="I2" s="5">
         <v>111</v>
       </c>
-      <c r="G2" s="4" t="b">
+      <c r="J2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="6">
+      <c r="G3" s="3">
         <v>45078</v>
       </c>
-      <c r="E3" s="7">
+      <c r="H3" s="4">
         <v>45078</v>
       </c>
-      <c r="F3" s="4">
+      <c r="I3" s="2">
         <v>455</v>
       </c>
-      <c r="G3" s="4" t="b">
+      <c r="J3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="6">
+      <c r="G4" s="3">
         <v>45078</v>
       </c>
-      <c r="E4" s="7">
+      <c r="H4" s="4">
         <v>45078</v>
       </c>
-      <c r="F4" s="4">
+      <c r="I4" s="2">
         <v>355</v>
       </c>
-      <c r="G4" s="4" t="b">
+      <c r="J4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="6">
+      <c r="G5" s="3">
         <v>45078</v>
       </c>
-      <c r="E5" s="7">
+      <c r="H5" s="4">
         <v>45078</v>
       </c>
-      <c r="F5" s="4">
+      <c r="I5" s="2">
         <v>456</v>
       </c>
-      <c r="G5" s="4" t="b">
+      <c r="J5" s="2" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45079</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45079</v>
+      </c>
+      <c r="I6" s="2">
+        <v>456</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45080</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45080</v>
+      </c>
+      <c r="I7" s="2">
+        <v>345</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45081</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45081</v>
+      </c>
+      <c r="I8" s="2">
+        <v>342</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45082</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45082</v>
+      </c>
+      <c r="I9" s="2">
+        <v>345</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>